--- a/Data/Processed/Angiosperms/missing_powo_ipni/Chrysobalanaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Chrysobalanaceae.xlsx
@@ -1147,7 +1147,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Neotrop. Monogr. no. 9: 350, fig. 57D-F. 1972 </t>
+          <t>Fl. Neotrop. Monogr. no. 9: 350, fig. 57D-F. 1972</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Neotrop. Monogr. no. 9: 310, fig. 48A-C. 1972 </t>
+          <t>Fl. Neotrop. Monogr. no. 9: 310, fig. 48A-C. 1972</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 42: 43. 1937 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 42: 43. 1937</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Goeldi Hist. Nat. Ethnogr. 6: 77. 1910 </t>
+          <t>Bol. Mus. Goeldi Hist. Nat. Ethnogr. 6: 77. 1910</t>
         </is>
       </c>
       <c r="J56" t="b">
